--- a/MARIUS OLE PAKINE.xlsx
+++ b/MARIUS OLE PAKINE.xlsx
@@ -23609,8 +23609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24346,10 +24346,12 @@
         <f t="shared" si="1"/>
         <v>6100</v>
       </c>
-      <c r="I25" s="207"/>
+      <c r="I25" s="207">
+        <v>5650</v>
+      </c>
       <c r="J25" s="207">
         <f t="shared" si="0"/>
-        <v>6100</v>
+        <v>450</v>
       </c>
       <c r="K25" s="207"/>
       <c r="L25" s="207"/>
@@ -24410,10 +24412,12 @@
         <f t="shared" si="1"/>
         <v>6800</v>
       </c>
-      <c r="I27" s="207"/>
+      <c r="I27" s="207">
+        <v>3000</v>
+      </c>
       <c r="J27" s="207">
         <f t="shared" si="0"/>
-        <v>6800</v>
+        <v>3800</v>
       </c>
       <c r="K27" s="207"/>
       <c r="L27" s="207"/>
@@ -25282,10 +25286,12 @@
         <f>D55+E55+F55+G55+C55</f>
         <v>7250</v>
       </c>
-      <c r="I55" s="207"/>
+      <c r="I55" s="207">
+        <v>6800</v>
+      </c>
       <c r="J55" s="207">
         <f>H55-I55</f>
-        <v>7250</v>
+        <v>450</v>
       </c>
       <c r="K55" s="207"/>
       <c r="L55" s="207"/>
@@ -25720,10 +25726,12 @@
         <f t="shared" si="1"/>
         <v>7150</v>
       </c>
-      <c r="I70" s="207"/>
+      <c r="I70" s="207">
+        <v>7150</v>
+      </c>
       <c r="J70" s="207">
         <f>H70-I70</f>
-        <v>7150</v>
+        <v>0</v>
       </c>
       <c r="K70" s="207"/>
       <c r="L70" s="207"/>
@@ -25756,11 +25764,11 @@
       </c>
       <c r="I71" s="207">
         <f t="shared" si="2"/>
-        <v>129700</v>
+        <v>152300</v>
       </c>
       <c r="J71" s="207">
         <f>SUM(J6:J70)</f>
-        <v>305027</v>
+        <v>282427</v>
       </c>
       <c r="K71" s="207">
         <f t="shared" si="2"/>
@@ -25836,7 +25844,7 @@
       <c r="G74" s="216"/>
       <c r="H74" s="234">
         <f>I71</f>
-        <v>129700</v>
+        <v>152300</v>
       </c>
       <c r="I74" s="216"/>
       <c r="J74" s="216"/>
@@ -26295,7 +26303,7 @@
       <c r="G99" s="225"/>
       <c r="H99" s="251">
         <f>H74+H75+H77+H79+H80</f>
-        <v>162900.18999999994</v>
+        <v>185500.18999999994</v>
       </c>
       <c r="I99" s="251">
         <f>SUM(I83:I98)</f>
@@ -26303,7 +26311,7 @@
       </c>
       <c r="J99" s="251">
         <f>H99-I99</f>
-        <v>112475.18999999994</v>
+        <v>135075.18999999994</v>
       </c>
       <c r="K99" s="251"/>
       <c r="L99" s="252"/>

--- a/MARIUS OLE PAKINE.xlsx
+++ b/MARIUS OLE PAKINE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11760" firstSheet="12" activeTab="15"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11760" firstSheet="13" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="SEPTEMBER 20" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3423" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3429" uniqueCount="502">
   <si>
     <t xml:space="preserve">RENT STATEMENT </t>
   </si>
@@ -1532,6 +1532,18 @@
   <si>
     <t>VICTOR GACHIRA</t>
   </si>
+  <si>
+    <t>ERICK MAGERO ISIA</t>
+  </si>
+  <si>
+    <t>JAY NJOROGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BULBHOLDER B11</t>
+  </si>
+  <si>
+    <t>CLEANING WATER</t>
+  </si>
 </sst>
 </file>
 
@@ -17290,8 +17302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:XFD62"/>
+    <sheetView topLeftCell="A28" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19515,8 +19527,8 @@
         <v>19500</v>
       </c>
       <c r="D71" s="96">
-        <f>'SEPTEMBER 21'!J71:J137</f>
-        <v>70300</v>
+        <f>SUM(D6:D70)</f>
+        <v>51450</v>
       </c>
       <c r="E71" s="116">
         <f>SUM(E6:E70)</f>
@@ -20212,7 +20224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O103"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A76" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -23609,8 +23621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23624,7 +23636,7 @@
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
     <col min="8" max="8" width="16.85546875" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
     <col min="11" max="11" width="13.85546875" customWidth="1"/>
     <col min="12" max="12" width="16.28515625" customWidth="1"/>
   </cols>
@@ -23747,22 +23759,20 @@
       <c r="E6" s="207">
         <v>6500</v>
       </c>
-      <c r="F6" s="208">
-        <v>250</v>
-      </c>
+      <c r="F6" s="208"/>
       <c r="G6" s="207">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="H6" s="207">
         <f>D6+E6+F6+G6+C6</f>
-        <v>7000</v>
+        <v>6650</v>
       </c>
       <c r="I6" s="207">
         <v>7000</v>
       </c>
       <c r="J6" s="207">
         <f t="shared" ref="J6:J67" si="0">H6-I6</f>
-        <v>0</v>
+        <v>-350</v>
       </c>
       <c r="K6" s="207"/>
       <c r="L6" s="207"/>
@@ -23791,11 +23801,12 @@
         <v>7600</v>
       </c>
       <c r="I7" s="207">
-        <v>6000</v>
+        <f>6000+1000</f>
+        <v>7000</v>
       </c>
       <c r="J7" s="207">
         <f>H7-I7</f>
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="K7" s="207"/>
       <c r="L7" s="207"/>
@@ -23821,10 +23832,13 @@
         <f t="shared" ref="H8:H70" si="1">D8+E8+F8+G8+C8</f>
         <v>7717</v>
       </c>
-      <c r="I8" s="207"/>
+      <c r="I8" s="207">
+        <f>6600</f>
+        <v>6600</v>
+      </c>
       <c r="J8" s="213">
         <f t="shared" si="0"/>
-        <v>7717</v>
+        <v>1117</v>
       </c>
       <c r="K8" s="207"/>
       <c r="L8" s="207"/>
@@ -23852,10 +23866,12 @@
         <f t="shared" si="1"/>
         <v>6950</v>
       </c>
-      <c r="I9" s="207"/>
+      <c r="I9" s="207">
+        <v>6950</v>
+      </c>
       <c r="J9" s="207">
         <f t="shared" si="0"/>
-        <v>6950</v>
+        <v>0</v>
       </c>
       <c r="K9" s="207"/>
       <c r="L9" s="207"/>
@@ -23883,10 +23899,12 @@
         <f t="shared" si="1"/>
         <v>6800</v>
       </c>
-      <c r="I10" s="207"/>
+      <c r="I10" s="207">
+        <v>6800</v>
+      </c>
       <c r="J10" s="207">
         <f t="shared" si="0"/>
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="K10" s="207"/>
       <c r="L10" s="207"/>
@@ -23912,10 +23930,12 @@
         <f t="shared" si="1"/>
         <v>7000</v>
       </c>
-      <c r="I11" s="207"/>
+      <c r="I11" s="207">
+        <v>7000</v>
+      </c>
       <c r="J11" s="207">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="207"/>
       <c r="L11" s="207"/>
@@ -23943,10 +23963,12 @@
         <f t="shared" si="1"/>
         <v>5650</v>
       </c>
-      <c r="I12" s="207"/>
+      <c r="I12" s="207">
+        <v>5650</v>
+      </c>
       <c r="J12" s="207">
         <f t="shared" si="0"/>
-        <v>5650</v>
+        <v>0</v>
       </c>
       <c r="K12" s="207"/>
       <c r="L12" s="207"/>
@@ -23974,10 +23996,12 @@
         <f t="shared" si="1"/>
         <v>10600</v>
       </c>
-      <c r="I13" s="207"/>
+      <c r="I13" s="207">
+        <v>7000</v>
+      </c>
       <c r="J13" s="207">
         <f t="shared" si="0"/>
-        <v>10600</v>
+        <v>3600</v>
       </c>
       <c r="K13" s="207"/>
       <c r="L13" s="207"/>
@@ -24003,10 +24027,13 @@
         <f t="shared" si="1"/>
         <v>6800</v>
       </c>
-      <c r="I14" s="207"/>
+      <c r="I14" s="207">
+        <f>6500</f>
+        <v>6500</v>
+      </c>
       <c r="J14" s="207">
         <f t="shared" si="0"/>
-        <v>6800</v>
+        <v>300</v>
       </c>
       <c r="K14" s="207"/>
       <c r="L14" s="207"/>
@@ -24034,10 +24061,12 @@
         <f t="shared" si="1"/>
         <v>7100</v>
       </c>
-      <c r="I15" s="207"/>
+      <c r="I15" s="207">
+        <v>6500</v>
+      </c>
       <c r="J15" s="207">
         <f>H15-I15</f>
-        <v>7100</v>
+        <v>600</v>
       </c>
       <c r="K15" s="207"/>
       <c r="L15" s="207"/>
@@ -24094,10 +24123,13 @@
         <f t="shared" si="1"/>
         <v>6800</v>
       </c>
-      <c r="I17" s="207"/>
+      <c r="I17" s="207">
+        <f>6650</f>
+        <v>6650</v>
+      </c>
       <c r="J17" s="207">
         <f t="shared" si="0"/>
-        <v>6800</v>
+        <v>150</v>
       </c>
       <c r="K17" s="207"/>
       <c r="L17" s="207"/>
@@ -24125,10 +24157,12 @@
         <f t="shared" si="1"/>
         <v>7100</v>
       </c>
-      <c r="I18" s="207"/>
+      <c r="I18" s="207">
+        <v>6500</v>
+      </c>
       <c r="J18" s="207">
         <f>H18-I18</f>
-        <v>7100</v>
+        <v>600</v>
       </c>
       <c r="K18" s="207"/>
       <c r="L18" s="207"/>
@@ -24156,10 +24190,12 @@
         <f t="shared" si="1"/>
         <v>6800</v>
       </c>
-      <c r="I19" s="207"/>
+      <c r="I19" s="207">
+        <v>6800</v>
+      </c>
       <c r="J19" s="207">
         <f t="shared" si="0"/>
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="K19" s="207"/>
       <c r="L19" s="207"/>
@@ -24187,10 +24223,12 @@
         <f t="shared" si="1"/>
         <v>6700</v>
       </c>
-      <c r="I20" s="207"/>
+      <c r="I20" s="207">
+        <v>6700</v>
+      </c>
       <c r="J20" s="207">
         <f t="shared" si="0"/>
-        <v>6700</v>
+        <v>0</v>
       </c>
       <c r="K20" s="207"/>
       <c r="L20" s="207"/>
@@ -24251,10 +24289,13 @@
         <f t="shared" si="1"/>
         <v>7100</v>
       </c>
-      <c r="I22" s="207"/>
+      <c r="I22" s="207">
+        <f>6500</f>
+        <v>6500</v>
+      </c>
       <c r="J22" s="207">
         <f t="shared" si="0"/>
-        <v>7100</v>
+        <v>600</v>
       </c>
       <c r="K22" s="207"/>
       <c r="L22" s="207"/>
@@ -24413,11 +24454,12 @@
         <v>6800</v>
       </c>
       <c r="I27" s="207">
-        <v>3000</v>
+        <f>3000+3600</f>
+        <v>6600</v>
       </c>
       <c r="J27" s="207">
         <f t="shared" si="0"/>
-        <v>3800</v>
+        <v>200</v>
       </c>
       <c r="K27" s="207"/>
       <c r="L27" s="207"/>
@@ -24445,16 +24487,18 @@
         <f t="shared" si="1"/>
         <v>6900</v>
       </c>
-      <c r="I28" s="207"/>
+      <c r="I28" s="207">
+        <v>6500</v>
+      </c>
       <c r="J28" s="207">
         <f>H28-I28</f>
-        <v>6900</v>
+        <v>400</v>
       </c>
       <c r="K28" s="207"/>
       <c r="L28" s="207"/>
     </row>
     <row r="29" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A29" s="219" t="s">
+      <c r="A29" s="216" t="s">
         <v>495</v>
       </c>
       <c r="B29" s="204" t="s">
@@ -24467,15 +24511,18 @@
         <f>'NOVEMBER 21'!J29:J93</f>
         <v>0</v>
       </c>
-      <c r="E29" s="211"/>
+      <c r="E29" s="211">
+        <v>6500</v>
+      </c>
       <c r="F29" s="212"/>
       <c r="G29" s="211"/>
       <c r="H29" s="207">
         <f t="shared" si="1"/>
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="I29" s="207">
-        <v>6500</v>
+        <f>6500+6500</f>
+        <v>13000</v>
       </c>
       <c r="J29" s="207">
         <f>H29-I29</f>
@@ -24604,10 +24651,12 @@
         <f t="shared" si="1"/>
         <v>6650</v>
       </c>
-      <c r="I33" s="207"/>
+      <c r="I33" s="207">
+        <v>6650</v>
+      </c>
       <c r="J33" s="207">
         <f t="shared" si="0"/>
-        <v>6650</v>
+        <v>0</v>
       </c>
       <c r="K33" s="207"/>
       <c r="L33" s="207"/>
@@ -24646,26 +24695,38 @@
       <c r="L34" s="207"/>
     </row>
     <row r="35" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A35" s="216"/>
+      <c r="A35" s="216" t="s">
+        <v>499</v>
+      </c>
       <c r="B35" s="204" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="205"/>
+      <c r="C35" s="219">
+        <v>6500</v>
+      </c>
       <c r="D35" s="206"/>
-      <c r="E35" s="212"/>
+      <c r="E35" s="212">
+        <v>6500</v>
+      </c>
       <c r="F35" s="212"/>
-      <c r="G35" s="211"/>
+      <c r="G35" s="211">
+        <v>150</v>
+      </c>
       <c r="H35" s="207">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="207"/>
+        <v>13150</v>
+      </c>
+      <c r="I35" s="207">
+        <v>13150</v>
+      </c>
       <c r="J35" s="213">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K35" s="213"/>
-      <c r="L35" s="213"/>
+      <c r="L35" s="207">
+        <v>1000</v>
+      </c>
     </row>
     <row r="36" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A36" s="216" t="s">
@@ -24716,15 +24777,19 @@
         <v>7000</v>
       </c>
       <c r="F37" s="212"/>
-      <c r="G37" s="211"/>
+      <c r="G37" s="211">
+        <v>150</v>
+      </c>
       <c r="H37" s="207">
         <f t="shared" si="1"/>
+        <v>7150</v>
+      </c>
+      <c r="I37" s="207">
         <v>7000</v>
       </c>
-      <c r="I37" s="207"/>
       <c r="J37" s="207">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>150</v>
       </c>
       <c r="K37" s="193"/>
       <c r="L37" s="207"/>
@@ -24750,10 +24815,12 @@
         <f t="shared" si="1"/>
         <v>5500</v>
       </c>
-      <c r="I38" s="207"/>
+      <c r="I38" s="207">
+        <v>5500</v>
+      </c>
       <c r="J38" s="207">
         <f t="shared" si="0"/>
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="K38" s="207"/>
       <c r="L38" s="207"/>
@@ -24781,10 +24848,12 @@
         <f t="shared" si="1"/>
         <v>7150</v>
       </c>
-      <c r="I39" s="207"/>
+      <c r="I39" s="207">
+        <v>7150</v>
+      </c>
       <c r="J39" s="207">
         <f t="shared" si="0"/>
-        <v>7150</v>
+        <v>0</v>
       </c>
       <c r="K39" s="207"/>
       <c r="L39" s="207"/>
@@ -24812,10 +24881,12 @@
         <f t="shared" si="1"/>
         <v>6950</v>
       </c>
-      <c r="I40" s="207"/>
+      <c r="I40" s="207">
+        <v>6650</v>
+      </c>
       <c r="J40" s="207">
         <f t="shared" si="0"/>
-        <v>6950</v>
+        <v>300</v>
       </c>
       <c r="K40" s="213"/>
       <c r="L40" s="213"/>
@@ -24865,21 +24936,17 @@
         <f>'NOVEMBER 21'!J42:J107</f>
         <v>550</v>
       </c>
-      <c r="E42" s="212">
-        <v>6500</v>
-      </c>
+      <c r="E42" s="212"/>
       <c r="F42" s="212"/>
-      <c r="G42" s="211">
-        <v>150</v>
-      </c>
+      <c r="G42" s="211"/>
       <c r="H42" s="207">
         <f t="shared" si="1"/>
-        <v>7200</v>
+        <v>550</v>
       </c>
       <c r="I42" s="207"/>
       <c r="J42" s="207">
         <f t="shared" si="0"/>
-        <v>7200</v>
+        <v>550</v>
       </c>
       <c r="K42" s="207"/>
       <c r="L42" s="207"/>
@@ -24907,10 +24974,13 @@
         <f>D43+E43+F43+G43+C43</f>
         <v>9850</v>
       </c>
-      <c r="I43" s="207"/>
+      <c r="I43" s="207">
+        <f>6500+3150</f>
+        <v>9650</v>
+      </c>
       <c r="J43" s="207">
         <f t="shared" si="0"/>
-        <v>9850</v>
+        <v>200</v>
       </c>
       <c r="K43" s="207"/>
       <c r="L43" s="207"/>
@@ -24938,10 +25008,12 @@
         <f t="shared" si="1"/>
         <v>6650</v>
       </c>
-      <c r="I44" s="207"/>
+      <c r="I44" s="207">
+        <v>1500</v>
+      </c>
       <c r="J44" s="207">
         <f t="shared" si="0"/>
-        <v>6650</v>
+        <v>5150</v>
       </c>
       <c r="K44" s="207"/>
       <c r="L44" s="207"/>
@@ -25001,11 +25073,12 @@
         <v>10450</v>
       </c>
       <c r="I46" s="207">
-        <v>5000</v>
+        <f>5000+1800</f>
+        <v>6800</v>
       </c>
       <c r="J46" s="207">
         <f t="shared" si="0"/>
-        <v>5450</v>
+        <v>3650</v>
       </c>
       <c r="K46" s="207"/>
       <c r="L46" s="207"/>
@@ -25026,25 +25099,27 @@
         <v>6500</v>
       </c>
       <c r="F47" s="212"/>
-      <c r="G47" s="211"/>
+      <c r="G47" s="211">
+        <v>150</v>
+      </c>
       <c r="H47" s="207">
         <f t="shared" si="1"/>
-        <v>6500</v>
+        <v>6650</v>
       </c>
       <c r="I47" s="207">
-        <f>1000+4000</f>
-        <v>5000</v>
+        <f>1000+4000+1500</f>
+        <v>6500</v>
       </c>
       <c r="J47" s="207">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="K47" s="207"/>
       <c r="L47" s="207"/>
     </row>
     <row r="48" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A48" s="216" t="s">
-        <v>361</v>
+      <c r="A48" s="219" t="s">
+        <v>17</v>
       </c>
       <c r="B48" s="204" t="s">
         <v>79</v>
@@ -25054,21 +25129,17 @@
         <f>'NOVEMBER 21'!J48:J113</f>
         <v>0</v>
       </c>
-      <c r="E48" s="212">
-        <v>6500</v>
-      </c>
+      <c r="E48" s="212"/>
       <c r="F48" s="212"/>
-      <c r="G48" s="211">
-        <v>150</v>
-      </c>
+      <c r="G48" s="211"/>
       <c r="H48" s="207">
         <f t="shared" si="1"/>
-        <v>6650</v>
+        <v>0</v>
       </c>
       <c r="I48" s="207"/>
       <c r="J48" s="213">
         <f t="shared" si="0"/>
-        <v>6650</v>
+        <v>0</v>
       </c>
       <c r="K48" s="207"/>
       <c r="L48" s="207"/>
@@ -25090,19 +25161,23 @@
       </c>
       <c r="F49" s="212"/>
       <c r="G49" s="211">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="H49" s="207">
         <f t="shared" si="1"/>
-        <v>7250</v>
-      </c>
-      <c r="I49" s="207"/>
+        <v>7100</v>
+      </c>
+      <c r="I49" s="207">
+        <v>7100</v>
+      </c>
       <c r="J49" s="207">
         <f t="shared" si="0"/>
-        <v>7250</v>
+        <v>0</v>
       </c>
       <c r="K49" s="207"/>
-      <c r="L49" s="207"/>
+      <c r="L49" s="207">
+        <v>1000</v>
+      </c>
     </row>
     <row r="50" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A50" s="216" t="s">
@@ -25130,10 +25205,10 @@
         <v>15150</v>
       </c>
       <c r="J50" s="207"/>
-      <c r="K50" s="207">
+      <c r="K50" s="207"/>
+      <c r="L50" s="207">
         <v>1000</v>
       </c>
-      <c r="L50" s="207"/>
     </row>
     <row r="51" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A51" s="216" t="s">
@@ -25226,10 +25301,12 @@
         <f t="shared" si="1"/>
         <v>8550</v>
       </c>
-      <c r="I53" s="207"/>
+      <c r="I53" s="207">
+        <v>6600</v>
+      </c>
       <c r="J53" s="207">
         <f t="shared" si="0"/>
-        <v>8550</v>
+        <v>1950</v>
       </c>
       <c r="K53" s="207"/>
       <c r="L53" s="207"/>
@@ -25255,10 +25332,12 @@
         <f t="shared" si="1"/>
         <v>6850</v>
       </c>
-      <c r="I54" s="207"/>
+      <c r="I54" s="207">
+        <v>6500</v>
+      </c>
       <c r="J54" s="207">
         <f t="shared" si="0"/>
-        <v>6850</v>
+        <v>350</v>
       </c>
       <c r="K54" s="207"/>
       <c r="L54" s="207"/>
@@ -25298,7 +25377,7 @@
     </row>
     <row r="56" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A56" s="216" t="s">
-        <v>433</v>
+        <v>498</v>
       </c>
       <c r="B56" s="204" t="s">
         <v>87</v>
@@ -25319,10 +25398,12 @@
         <f>D56+E56+F56+G56+C56</f>
         <v>6800</v>
       </c>
-      <c r="I56" s="224"/>
+      <c r="I56" s="224">
+        <v>6500</v>
+      </c>
       <c r="J56" s="223">
         <f t="shared" si="0"/>
-        <v>6800</v>
+        <v>300</v>
       </c>
       <c r="K56" s="207"/>
       <c r="L56" s="207"/>
@@ -25381,10 +25462,12 @@
         <f t="shared" si="1"/>
         <v>8450</v>
       </c>
-      <c r="I58" s="207"/>
+      <c r="I58" s="207">
+        <v>8150</v>
+      </c>
       <c r="J58" s="207">
         <f t="shared" si="0"/>
-        <v>8450</v>
+        <v>300</v>
       </c>
       <c r="K58" s="207"/>
       <c r="L58" s="207"/>
@@ -25491,10 +25574,12 @@
         <f t="shared" si="1"/>
         <v>6950</v>
       </c>
-      <c r="I62" s="207"/>
+      <c r="I62" s="207">
+        <v>6500</v>
+      </c>
       <c r="J62" s="207">
         <f t="shared" si="0"/>
-        <v>6950</v>
+        <v>450</v>
       </c>
       <c r="K62" s="207"/>
       <c r="L62" s="207"/>
@@ -25642,10 +25727,13 @@
         <f t="shared" si="1"/>
         <v>9460</v>
       </c>
-      <c r="I67" s="207"/>
+      <c r="I67" s="207">
+        <f>5500+1000</f>
+        <v>6500</v>
+      </c>
       <c r="J67" s="207">
         <f t="shared" si="0"/>
-        <v>9460</v>
+        <v>2960</v>
       </c>
       <c r="K67" s="207"/>
       <c r="L67" s="207"/>
@@ -25682,7 +25770,9 @@
       <c r="L68" s="207"/>
     </row>
     <row r="69" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A69" s="216"/>
+      <c r="A69" s="219" t="s">
+        <v>17</v>
+      </c>
       <c r="B69" s="204" t="s">
         <v>100</v>
       </c>
@@ -25741,7 +25831,10 @@
         <v>28</v>
       </c>
       <c r="B71" s="216"/>
-      <c r="C71" s="210"/>
+      <c r="C71" s="210">
+        <f>SUM(C6:C70)</f>
+        <v>21000</v>
+      </c>
       <c r="D71" s="206">
         <f>SUM(D6:D70)</f>
         <v>34477</v>
@@ -25752,31 +25845,31 @@
       </c>
       <c r="F71" s="227">
         <f t="shared" ref="F71:L71" si="2">SUM(F6:F70)</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G71" s="228">
         <f>SUM(G6:G70)</f>
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="H71" s="207">
         <f>SUM(H6:H70)</f>
-        <v>426727</v>
+        <v>432877</v>
       </c>
       <c r="I71" s="207">
         <f t="shared" si="2"/>
-        <v>152300</v>
+        <v>364450</v>
       </c>
       <c r="J71" s="207">
         <f>SUM(J6:J70)</f>
-        <v>282427</v>
+        <v>76427</v>
       </c>
       <c r="K71" s="207">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L71" s="207">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
@@ -25844,7 +25937,7 @@
       <c r="G74" s="216"/>
       <c r="H74" s="234">
         <f>I71</f>
-        <v>152300</v>
+        <v>364450</v>
       </c>
       <c r="I74" s="216"/>
       <c r="J74" s="216"/>
@@ -25881,7 +25974,7 @@
       </c>
       <c r="B76" s="233">
         <f>C71</f>
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="C76" s="216"/>
       <c r="D76" s="216"/>
@@ -25900,7 +25993,7 @@
       </c>
       <c r="B77" s="233">
         <f>F71</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="C77" s="216"/>
       <c r="D77" s="216"/>
@@ -25919,7 +26012,7 @@
       </c>
       <c r="B78" s="233">
         <f>K71</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C78" s="216"/>
       <c r="D78" s="216"/>
@@ -25938,7 +26031,7 @@
       </c>
       <c r="B79" s="234">
         <f>L71</f>
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="C79" s="216"/>
       <c r="D79" s="216"/>
@@ -25949,7 +26042,7 @@
       <c r="G79" s="216"/>
       <c r="H79" s="234">
         <f>L71</f>
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="I79" s="216"/>
       <c r="J79" s="216"/>
@@ -26070,7 +26163,7 @@
       <c r="H85" s="234"/>
       <c r="I85" s="234">
         <f>G71</f>
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="J85" s="193"/>
       <c r="K85" s="234"/>
@@ -26143,29 +26236,46 @@
       <c r="L88" s="235"/>
     </row>
     <row r="89" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A89" s="246"/>
+      <c r="A89" s="246" t="s">
+        <v>500</v>
+      </c>
       <c r="B89" s="247"/>
-      <c r="C89" s="248"/>
+      <c r="C89" s="248">
+        <v>140</v>
+      </c>
       <c r="D89" s="249"/>
       <c r="E89" s="249"/>
-      <c r="F89" s="246"/>
+      <c r="F89" s="246" t="s">
+        <v>500</v>
+      </c>
       <c r="G89" s="247"/>
       <c r="H89" s="248"/>
-      <c r="I89" s="248"/>
+      <c r="I89" s="248">
+        <v>140</v>
+      </c>
       <c r="J89" s="216"/>
       <c r="K89" s="216"/>
       <c r="L89" s="235"/>
     </row>
     <row r="90" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A90" s="246"/>
+      <c r="A90" s="246" t="s">
+        <v>501</v>
+      </c>
       <c r="B90" s="247"/>
-      <c r="C90" s="248"/>
+      <c r="C90" s="248">
+        <f>50+100+100</f>
+        <v>250</v>
+      </c>
       <c r="D90" s="249"/>
       <c r="E90" s="249"/>
-      <c r="F90" s="246"/>
+      <c r="F90" s="246" t="s">
+        <v>501</v>
+      </c>
       <c r="G90" s="247"/>
       <c r="H90" s="248"/>
-      <c r="I90" s="248"/>
+      <c r="I90" s="248">
+        <v>250</v>
+      </c>
       <c r="J90" s="216"/>
       <c r="K90" s="216"/>
       <c r="L90" s="235"/>
@@ -26288,30 +26398,30 @@
       </c>
       <c r="B99" s="251">
         <f>B74+B75+B76+B77+B78+B79+B81+B80</f>
-        <v>530707.18999999994</v>
+        <v>553457.18999999994</v>
       </c>
       <c r="C99" s="251">
         <f>SUM(C83:C98)</f>
-        <v>43425</v>
+        <v>43815</v>
       </c>
       <c r="D99" s="251">
         <f>B99-C99</f>
-        <v>487282.18999999994</v>
+        <v>509642.18999999994</v>
       </c>
       <c r="E99" s="251"/>
       <c r="F99" s="225"/>
       <c r="G99" s="225"/>
       <c r="H99" s="251">
         <f>H74+H75+H77+H79+H80</f>
-        <v>185500.18999999994</v>
+        <v>400650.18999999994</v>
       </c>
       <c r="I99" s="251">
         <f>SUM(I83:I98)</f>
-        <v>50425</v>
+        <v>50715</v>
       </c>
       <c r="J99" s="251">
         <f>H99-I99</f>
-        <v>135075.18999999994</v>
+        <v>349935.18999999994</v>
       </c>
       <c r="K99" s="251"/>
       <c r="L99" s="252"/>
@@ -26333,7 +26443,7 @@
       </c>
       <c r="I100" s="255">
         <f>I99-I85</f>
-        <v>43425</v>
+        <v>43815</v>
       </c>
       <c r="J100" s="194"/>
       <c r="K100" s="194"/>
@@ -26356,7 +26466,7 @@
       </c>
       <c r="I101" s="256">
         <f>I99-I83</f>
-        <v>23999.999999999996</v>
+        <v>24289.999999999996</v>
       </c>
       <c r="J101" s="194"/>
       <c r="K101" s="245"/>
